--- a/BaseIPDO.xlsx
+++ b/BaseIPDO.xlsx
@@ -7,8 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="carga2018" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="carga2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Norte" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nordeste" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sul" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sudeste" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,56 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>Norte</t>
-  </si>
-  <si>
-    <t>Nordeste</t>
-  </si>
-  <si>
-    <t>Sul</t>
-  </si>
-  <si>
-    <t>Sudeste</t>
-  </si>
-  <si>
-    <t>Janeiro</t>
-  </si>
-  <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
-    <t>Março</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Julho</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Setembro</t>
-  </si>
-  <si>
-    <t>Outubro</t>
-  </si>
-  <si>
-    <t>Novembro</t>
-  </si>
-  <si>
-    <t>Dezembro</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,69 +373,481 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" t="n">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C5" t="n">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="1" t="s">
+      <c r="C6" t="n">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>163525.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>322818.59</v>
-      </c>
-      <c r="E3" t="n">
-        <v>362148.6100000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1209284.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="1" t="s">
+      <c r="C7" t="n">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>150837.23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>289748.37</v>
-      </c>
-      <c r="E4" t="n">
-        <v>338216.2799999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1078926.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1" t="s">
+      <c r="C8" t="n">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>172516.8399999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>327726.02</v>
-      </c>
-      <c r="E5" t="n">
-        <v>368628.0299999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1240169.12</v>
+      <c r="C9" t="n">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12958</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" t="n">
+        <v>14204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13660</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,222 +869,1473 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" t="n">
+        <v>8618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C5" t="n">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="1" t="s">
+      <c r="C6" t="n">
+        <v>7444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C7" t="n">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="C3" t="n">
-        <v>157409.53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>321910.04</v>
-      </c>
-      <c r="E3" t="n">
-        <v>367506.05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1207501.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="1" t="s">
+        <v>14327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="C8" t="n">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>13253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="n">
-        <v>144647.13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>293869.95</v>
-      </c>
-      <c r="E4" t="n">
-        <v>350302.29</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1120687.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1" t="s">
+        <v>31605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>167235.13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>331834.47</v>
-      </c>
-      <c r="E5" t="n">
-        <v>361126.2099999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1221281.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
+      <c r="C9" t="n">
+        <v>32317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>158724.65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>308392.6699999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>312205.49</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1073035.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1" t="s">
+      <c r="C10" t="n">
+        <v>32095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>173375.7900000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>315929.23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>317357.92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1066578.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="1" t="s">
+      <c r="C11" t="n">
+        <v>33329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>164567.62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>295755.8799999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>309801.47</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1015272.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="1" t="s">
+      <c r="C12" t="n">
+        <v>33174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>166067.27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>287867.6299999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>323126.0000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1004486.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="1" t="s">
+      <c r="C13" t="n">
+        <v>34574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>173452.92</v>
-      </c>
-      <c r="D10" t="n">
-        <v>300885.76</v>
-      </c>
-      <c r="E10" t="n">
-        <v>328798.52</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1048557.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1" t="s">
+      <c r="C14" t="n">
+        <v>36497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>168868.37</v>
-      </c>
-      <c r="D11" t="n">
-        <v>289921.62</v>
-      </c>
-      <c r="E11" t="n">
-        <v>320735.64</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1065744.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1" t="s">
+      <c r="C15" t="n">
+        <v>38542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C12" t="n">
-        <v>173614.11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>315482.0500000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>324092.62</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1134596.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="1" t="s">
+      <c r="C16" t="n">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C13" t="n">
-        <v>167026.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>309499.05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>323502.16</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1073747.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1" t="s">
+      <c r="C17" t="n">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C14" t="n">
-        <v>166789.35</v>
-      </c>
-      <c r="D14" t="n">
-        <v>320862.7700000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>352359.75</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1139041.83</v>
+      <c r="C18" t="n">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>48796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>49647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>51763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>54752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>55476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>55321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>55118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>55296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>55979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>57068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>56740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>55975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>56024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>55210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>53203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>53596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>53601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>52851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>53638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>53950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>54830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>54502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>52987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>52625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>53462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>54065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>53066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>51031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" t="n">
+        <v>49528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>47492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>41734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C55" t="n">
+        <v>40041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n">
+        <v>38798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="n">
+        <v>38411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" t="n">
+        <v>38441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>39314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="n">
+        <v>40953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>42272</v>
       </c>
     </row>
   </sheetData>
